--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Ptprz1-L1cam.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Ptprz1-L1cam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,12 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -83,12 +89,6 @@
   </si>
   <si>
     <t>L1cam</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
   <si>
     <t>M1</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>4.30546451893599</v>
+        <v>0.01848533333333334</v>
       </c>
       <c r="H2">
-        <v>4.30546451893599</v>
+        <v>0.05545600000000001</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.002735469863414935</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.002735469863414935</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.69585436751226</v>
+        <v>4.471321666666667</v>
       </c>
       <c r="N2">
-        <v>3.69585436751226</v>
+        <v>13.413965</v>
       </c>
       <c r="O2">
-        <v>0.07296492607777932</v>
+        <v>0.083204941376588</v>
       </c>
       <c r="P2">
-        <v>0.07296492607777932</v>
+        <v>0.08320494137658797</v>
       </c>
       <c r="Q2">
-        <v>15.91236984647865</v>
+        <v>0.08265387144888892</v>
       </c>
       <c r="R2">
-        <v>15.91236984647865</v>
+        <v>0.7438848430400001</v>
       </c>
       <c r="S2">
-        <v>0.07296492607777932</v>
+        <v>0.0002276046096228629</v>
       </c>
       <c r="T2">
-        <v>0.07296492607777932</v>
+        <v>0.0002276046096228628</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>4.30546451893599</v>
+        <v>0.01848533333333334</v>
       </c>
       <c r="H3">
-        <v>4.30546451893599</v>
+        <v>0.05545600000000001</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.002735469863414935</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.002735469863414935</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.431079089072683</v>
+        <v>0.4515893333333333</v>
       </c>
       <c r="N3">
-        <v>0.431079089072683</v>
+        <v>1.354768</v>
       </c>
       <c r="O3">
-        <v>0.008510523072649297</v>
+        <v>0.008403435674603098</v>
       </c>
       <c r="P3">
-        <v>0.008510523072649297</v>
+        <v>0.008403435674603096</v>
       </c>
       <c r="Q3">
-        <v>1.855995722857684</v>
+        <v>0.008347779356444446</v>
       </c>
       <c r="R3">
-        <v>1.855995722857684</v>
+        <v>0.075130014208</v>
       </c>
       <c r="S3">
-        <v>0.008510523072649297</v>
+        <v>2.298734503702273E-05</v>
       </c>
       <c r="T3">
-        <v>0.008510523072649297</v>
+        <v>2.298734503702273E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>4.30546451893599</v>
+        <v>0.01848533333333334</v>
       </c>
       <c r="H4">
-        <v>4.30546451893599</v>
+        <v>0.05545600000000001</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.002735469863414935</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.002735469863414935</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.0571435599817</v>
+        <v>6.212987666666666</v>
       </c>
       <c r="N4">
-        <v>6.0571435599817</v>
+        <v>18.638963</v>
       </c>
       <c r="O4">
-        <v>0.11958237207113</v>
+        <v>0.1156148703038507</v>
       </c>
       <c r="P4">
-        <v>0.11958237207113</v>
+        <v>0.1156148703038506</v>
       </c>
       <c r="Q4">
-        <v>26.07881668360284</v>
+        <v>0.1148491480142222</v>
       </c>
       <c r="R4">
-        <v>26.07881668360284</v>
+        <v>1.033642332128</v>
       </c>
       <c r="S4">
-        <v>0.11958237207113</v>
+        <v>0.0003162609934788099</v>
       </c>
       <c r="T4">
-        <v>0.11958237207113</v>
+        <v>0.0003162609934788098</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>4.30546451893599</v>
+        <v>0.01848533333333334</v>
       </c>
       <c r="H5">
-        <v>4.30546451893599</v>
+        <v>0.05545600000000001</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.002735469863414935</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.002735469863414935</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.05166258575103</v>
+        <v>6.473970333333334</v>
       </c>
       <c r="N5">
-        <v>5.05166258575103</v>
+        <v>19.421911</v>
       </c>
       <c r="O5">
-        <v>0.09973179419061207</v>
+        <v>0.1204713868104106</v>
       </c>
       <c r="P5">
-        <v>0.09973179419061207</v>
+        <v>0.1204713868104106</v>
       </c>
       <c r="Q5">
-        <v>21.7497540245875</v>
+        <v>0.1196734996017778</v>
       </c>
       <c r="R5">
-        <v>21.7497540245875</v>
+        <v>1.077061496416</v>
       </c>
       <c r="S5">
-        <v>0.09973179419061207</v>
+        <v>0.0003295458480236818</v>
       </c>
       <c r="T5">
-        <v>0.09973179419061207</v>
+        <v>0.0003295458480236817</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>27</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>4.30546451893599</v>
+        <v>0.01848533333333334</v>
       </c>
       <c r="H6">
-        <v>4.30546451893599</v>
+        <v>0.05545600000000001</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.002735469863414935</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.002735469863414935</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>31.5687969974185</v>
+        <v>32.24961033333333</v>
       </c>
       <c r="N6">
-        <v>31.5687969974185</v>
+        <v>96.748831</v>
       </c>
       <c r="O6">
-        <v>0.6232428851982955</v>
+        <v>0.6001194137310196</v>
       </c>
       <c r="P6">
-        <v>0.6232428851982955</v>
+        <v>0.6001194137310196</v>
       </c>
       <c r="Q6">
-        <v>135.9183353778783</v>
+        <v>0.5961447968817778</v>
       </c>
       <c r="R6">
-        <v>135.9183353778783</v>
+        <v>5.365303171936</v>
       </c>
       <c r="S6">
-        <v>0.6232428851982955</v>
+        <v>0.001641608570711443</v>
       </c>
       <c r="T6">
-        <v>0.6232428851982955</v>
+        <v>0.001641608570711443</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,805 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.01848533333333334</v>
+      </c>
+      <c r="H7">
+        <v>0.05545600000000001</v>
+      </c>
+      <c r="I7">
+        <v>0.002735469863414935</v>
+      </c>
+      <c r="J7">
+        <v>0.002735469863414935</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>3.879176</v>
+      </c>
+      <c r="N7">
+        <v>11.637528</v>
+      </c>
+      <c r="O7">
+        <v>0.07218595210352802</v>
+      </c>
+      <c r="P7">
+        <v>0.072185952103528</v>
+      </c>
+      <c r="Q7">
+        <v>0.07170786141866667</v>
+      </c>
+      <c r="R7">
+        <v>0.645370752768</v>
+      </c>
+      <c r="S7">
+        <v>0.0001974624965411149</v>
+      </c>
+      <c r="T7">
+        <v>0.0001974624965411148</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>21</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.008616666666666667</v>
+      </c>
+      <c r="H8">
+        <v>0.02585</v>
+      </c>
+      <c r="I8">
+        <v>0.001275099105043207</v>
+      </c>
+      <c r="J8">
+        <v>0.001275099105043207</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>4.471321666666667</v>
+      </c>
+      <c r="N8">
+        <v>13.413965</v>
+      </c>
+      <c r="O8">
+        <v>0.083204941376588</v>
+      </c>
+      <c r="P8">
+        <v>0.08320494137658797</v>
+      </c>
+      <c r="Q8">
+        <v>0.03852788836111112</v>
+      </c>
+      <c r="R8">
+        <v>0.34675099525</v>
+      </c>
+      <c r="S8">
+        <v>0.0001060945462844598</v>
+      </c>
+      <c r="T8">
+        <v>0.0001060945462844598</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.008616666666666667</v>
+      </c>
+      <c r="H9">
+        <v>0.02585</v>
+      </c>
+      <c r="I9">
+        <v>0.001275099105043207</v>
+      </c>
+      <c r="J9">
+        <v>0.001275099105043207</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.4515893333333333</v>
+      </c>
+      <c r="N9">
+        <v>1.354768</v>
+      </c>
+      <c r="O9">
+        <v>0.008403435674603098</v>
+      </c>
+      <c r="P9">
+        <v>0.008403435674603096</v>
+      </c>
+      <c r="Q9">
+        <v>0.003891194755555556</v>
+      </c>
+      <c r="R9">
+        <v>0.0350207528</v>
+      </c>
+      <c r="S9">
+        <v>1.071521330797457E-05</v>
+      </c>
+      <c r="T9">
+        <v>1.071521330797457E-05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.008616666666666667</v>
+      </c>
+      <c r="H10">
+        <v>0.02585</v>
+      </c>
+      <c r="I10">
+        <v>0.001275099105043207</v>
+      </c>
+      <c r="J10">
+        <v>0.001275099105043207</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>6.212987666666666</v>
+      </c>
+      <c r="N10">
+        <v>18.638963</v>
+      </c>
+      <c r="O10">
+        <v>0.1156148703038507</v>
+      </c>
+      <c r="P10">
+        <v>0.1156148703038506</v>
+      </c>
+      <c r="Q10">
+        <v>0.05353524372777777</v>
+      </c>
+      <c r="R10">
+        <v>0.48181719355</v>
+      </c>
+      <c r="S10">
+        <v>0.0001474204176541264</v>
+      </c>
+      <c r="T10">
+        <v>0.0001474204176541264</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.008616666666666667</v>
+      </c>
+      <c r="H11">
+        <v>0.02585</v>
+      </c>
+      <c r="I11">
+        <v>0.001275099105043207</v>
+      </c>
+      <c r="J11">
+        <v>0.001275099105043207</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>6.473970333333334</v>
+      </c>
+      <c r="N11">
+        <v>19.421911</v>
+      </c>
+      <c r="O11">
+        <v>0.1204713868104106</v>
+      </c>
+      <c r="P11">
+        <v>0.1204713868104106</v>
+      </c>
+      <c r="Q11">
+        <v>0.05578404437222222</v>
+      </c>
+      <c r="R11">
+        <v>0.50205639935</v>
+      </c>
+      <c r="S11">
+        <v>0.0001536129575052685</v>
+      </c>
+      <c r="T11">
+        <v>0.0001536129575052685</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.008616666666666667</v>
+      </c>
+      <c r="H12">
+        <v>0.02585</v>
+      </c>
+      <c r="I12">
+        <v>0.001275099105043207</v>
+      </c>
+      <c r="J12">
+        <v>0.001275099105043207</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>32.24961033333333</v>
+      </c>
+      <c r="N12">
+        <v>96.748831</v>
+      </c>
+      <c r="O12">
+        <v>0.6001194137310196</v>
+      </c>
+      <c r="P12">
+        <v>0.6001194137310196</v>
+      </c>
+      <c r="Q12">
+        <v>0.2778841423722222</v>
+      </c>
+      <c r="R12">
+        <v>2.50095728135</v>
+      </c>
+      <c r="S12">
+        <v>0.0007652117273674769</v>
+      </c>
+      <c r="T12">
+        <v>0.000765211727367477</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
         <v>22</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.008616666666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.02585</v>
+      </c>
+      <c r="I13">
+        <v>0.001275099105043207</v>
+      </c>
+      <c r="J13">
+        <v>0.001275099105043207</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>3.879176</v>
+      </c>
+      <c r="N13">
+        <v>11.637528</v>
+      </c>
+      <c r="O13">
+        <v>0.07218595210352802</v>
+      </c>
+      <c r="P13">
+        <v>0.072185952103528</v>
+      </c>
+      <c r="Q13">
+        <v>0.03342556653333333</v>
+      </c>
+      <c r="R13">
+        <v>0.3008300988</v>
+      </c>
+      <c r="S13">
+        <v>9.204424292390034E-05</v>
+      </c>
+      <c r="T13">
+        <v>9.204424292390034E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
         <v>20</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>4.30546451893599</v>
-      </c>
-      <c r="H7">
-        <v>4.30546451893599</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>3.84794214837555</v>
-      </c>
-      <c r="N7">
-        <v>3.84794214837555</v>
-      </c>
-      <c r="O7">
-        <v>0.07596749938953377</v>
-      </c>
-      <c r="P7">
-        <v>0.07596749938953377</v>
-      </c>
-      <c r="Q7">
-        <v>16.56717839074926</v>
-      </c>
-      <c r="R7">
-        <v>16.56717839074926</v>
-      </c>
-      <c r="S7">
-        <v>0.07596749938953377</v>
-      </c>
-      <c r="T7">
-        <v>0.07596749938953377</v>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>6.730542666666667</v>
+      </c>
+      <c r="H14">
+        <v>20.191628</v>
+      </c>
+      <c r="I14">
+        <v>0.9959894310315418</v>
+      </c>
+      <c r="J14">
+        <v>0.9959894310315418</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>4.471321666666667</v>
+      </c>
+      <c r="N14">
+        <v>13.413965</v>
+      </c>
+      <c r="O14">
+        <v>0.083204941376588</v>
+      </c>
+      <c r="P14">
+        <v>0.08320494137658797</v>
+      </c>
+      <c r="Q14">
+        <v>30.09442125389112</v>
+      </c>
+      <c r="R14">
+        <v>270.84979128502</v>
+      </c>
+      <c r="S14">
+        <v>0.08287124222068068</v>
+      </c>
+      <c r="T14">
+        <v>0.08287124222068065</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>6.730542666666667</v>
+      </c>
+      <c r="H15">
+        <v>20.191628</v>
+      </c>
+      <c r="I15">
+        <v>0.9959894310315418</v>
+      </c>
+      <c r="J15">
+        <v>0.9959894310315418</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.4515893333333333</v>
+      </c>
+      <c r="N15">
+        <v>1.354768</v>
+      </c>
+      <c r="O15">
+        <v>0.008403435674603098</v>
+      </c>
+      <c r="P15">
+        <v>0.008403435674603096</v>
+      </c>
+      <c r="Q15">
+        <v>3.039441275811556</v>
+      </c>
+      <c r="R15">
+        <v>27.354971482304</v>
+      </c>
+      <c r="S15">
+        <v>0.008369733116258101</v>
+      </c>
+      <c r="T15">
+        <v>0.008369733116258099</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>6.730542666666667</v>
+      </c>
+      <c r="H16">
+        <v>20.191628</v>
+      </c>
+      <c r="I16">
+        <v>0.9959894310315418</v>
+      </c>
+      <c r="J16">
+        <v>0.9959894310315418</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>6.212987666666666</v>
+      </c>
+      <c r="N16">
+        <v>18.638963</v>
+      </c>
+      <c r="O16">
+        <v>0.1156148703038507</v>
+      </c>
+      <c r="P16">
+        <v>0.1156148703038506</v>
+      </c>
+      <c r="Q16">
+        <v>41.81677857797378</v>
+      </c>
+      <c r="R16">
+        <v>376.351007201764</v>
+      </c>
+      <c r="S16">
+        <v>0.1151511888927177</v>
+      </c>
+      <c r="T16">
+        <v>0.1151511888927177</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>6.730542666666667</v>
+      </c>
+      <c r="H17">
+        <v>20.191628</v>
+      </c>
+      <c r="I17">
+        <v>0.9959894310315418</v>
+      </c>
+      <c r="J17">
+        <v>0.9959894310315418</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>6.473970333333334</v>
+      </c>
+      <c r="N17">
+        <v>19.421911</v>
+      </c>
+      <c r="O17">
+        <v>0.1204713868104106</v>
+      </c>
+      <c r="P17">
+        <v>0.1204713868104106</v>
+      </c>
+      <c r="Q17">
+        <v>43.57333355123423</v>
+      </c>
+      <c r="R17">
+        <v>392.160001961108</v>
+      </c>
+      <c r="S17">
+        <v>0.1199882280048816</v>
+      </c>
+      <c r="T17">
+        <v>0.1199882280048816</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>6.730542666666667</v>
+      </c>
+      <c r="H18">
+        <v>20.191628</v>
+      </c>
+      <c r="I18">
+        <v>0.9959894310315418</v>
+      </c>
+      <c r="J18">
+        <v>0.9959894310315418</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>32.24961033333333</v>
+      </c>
+      <c r="N18">
+        <v>96.748831</v>
+      </c>
+      <c r="O18">
+        <v>0.6001194137310196</v>
+      </c>
+      <c r="P18">
+        <v>0.6001194137310196</v>
+      </c>
+      <c r="Q18">
+        <v>217.0573783318742</v>
+      </c>
+      <c r="R18">
+        <v>1953.516404986868</v>
+      </c>
+      <c r="S18">
+        <v>0.5977125934329407</v>
+      </c>
+      <c r="T18">
+        <v>0.5977125934329407</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>6.730542666666667</v>
+      </c>
+      <c r="H19">
+        <v>20.191628</v>
+      </c>
+      <c r="I19">
+        <v>0.9959894310315418</v>
+      </c>
+      <c r="J19">
+        <v>0.9959894310315418</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>3.879176</v>
+      </c>
+      <c r="N19">
+        <v>11.637528</v>
+      </c>
+      <c r="O19">
+        <v>0.07218595210352802</v>
+      </c>
+      <c r="P19">
+        <v>0.072185952103528</v>
+      </c>
+      <c r="Q19">
+        <v>26.10895957950934</v>
+      </c>
+      <c r="R19">
+        <v>234.980636215584</v>
+      </c>
+      <c r="S19">
+        <v>0.07189644536406299</v>
+      </c>
+      <c r="T19">
+        <v>0.07189644536406298</v>
       </c>
     </row>
   </sheetData>
